--- a/reset1/input.xlsx
+++ b/reset1/input.xlsx
@@ -1,26 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\boomhtml\reset1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F86BB0-26DE-465E-B8F9-88CEA433490C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98141C63-5EF6-4F7F-85A6-0CB5F54321F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{14306834-8CD9-4FAE-BB54-EB7E6A6F73B2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="7" xr2:uid="{14306834-8CD9-4FAE-BB54-EB7E6A6F73B2}"/>
   </bookViews>
   <sheets>
-    <sheet name="Teller" sheetId="6" r:id="rId1"/>
-    <sheet name="Toestel" sheetId="5" r:id="rId2"/>
-    <sheet name="Zekering" sheetId="3" r:id="rId3"/>
-    <sheet name="Kabel" sheetId="2" r:id="rId4"/>
-    <sheet name="Differentieel" sheetId="4" r:id="rId5"/>
+    <sheet name="ContaxContact" sheetId="10" r:id="rId1"/>
+    <sheet name="Teller" sheetId="6" r:id="rId2"/>
+    <sheet name="Toestel" sheetId="5" r:id="rId3"/>
+    <sheet name="Domomodule" sheetId="8" r:id="rId4"/>
+    <sheet name="Zekering" sheetId="3" r:id="rId5"/>
+    <sheet name="Kabel" sheetId="2" r:id="rId6"/>
+    <sheet name="Differentieel" sheetId="4" r:id="rId7"/>
+    <sheet name="Prieze" sheetId="7" r:id="rId8"/>
+    <sheet name="Component" sheetId="11" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Kabel!$A$1:$J$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Kabel!$A$1:$J$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="135">
   <si>
     <t>teller</t>
   </si>
@@ -109,9 +113,6 @@
     <t>puntje</t>
   </si>
   <si>
-    <t>type</t>
-  </si>
-  <si>
     <t>van</t>
   </si>
   <si>
@@ -353,6 +354,93 @@
   </si>
   <si>
     <t>vincent</t>
+  </si>
+  <si>
+    <t>blind1</t>
+  </si>
+  <si>
+    <t>q6</t>
+  </si>
+  <si>
+    <t>q15</t>
+  </si>
+  <si>
+    <t>velbus voeding</t>
+  </si>
+  <si>
+    <t>velbus</t>
+  </si>
+  <si>
+    <t>blind3</t>
+  </si>
+  <si>
+    <t>ryno1</t>
+  </si>
+  <si>
+    <t>ct1</t>
+  </si>
+  <si>
+    <t>ct2</t>
+  </si>
+  <si>
+    <t>spoel_parent</t>
+  </si>
+  <si>
+    <t>ct2_contact</t>
+  </si>
+  <si>
+    <t>kkn + liv</t>
+  </si>
+  <si>
+    <t>enk_dubb</t>
+  </si>
+  <si>
+    <t>locatie</t>
+  </si>
+  <si>
+    <t>ws7.1</t>
+  </si>
+  <si>
+    <t>liv</t>
+  </si>
+  <si>
+    <t>ws7.2</t>
+  </si>
+  <si>
+    <t>ws7.3</t>
+  </si>
+  <si>
+    <t>ws7.4</t>
+  </si>
+  <si>
+    <t>hal</t>
+  </si>
+  <si>
+    <t>hydro</t>
+  </si>
+  <si>
+    <t>schak</t>
+  </si>
+  <si>
+    <t>aarding</t>
+  </si>
+  <si>
+    <t>kinder</t>
+  </si>
+  <si>
+    <t>zt</t>
+  </si>
+  <si>
+    <t>theuninck</t>
+  </si>
+  <si>
+    <t>ws1.1</t>
+  </si>
+  <si>
+    <t>ws1.2</t>
+  </si>
+  <si>
+    <t>dampkap</t>
   </si>
 </sst>
 </file>
@@ -709,11 +797,65 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68129638-42FA-4F85-8337-D9538C982CFB}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F107103C-149F-4D4E-90FF-769029B7A4B6}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -732,7 +874,7 @@
         <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F1" t="s">
         <v>12</v>
@@ -749,10 +891,10 @@
         <v>40</v>
       </c>
       <c r="D2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2" t="s">
         <v>105</v>
-      </c>
-      <c r="E2" t="s">
-        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -760,12 +902,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDCA2160-DBF1-4720-8D55-C2FCAD5DC839}">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -805,6 +947,9 @@
       <c r="B3" t="s">
         <v>18</v>
       </c>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -836,6 +981,14 @@
       </c>
       <c r="B7" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -848,12 +1001,68 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59DB0000-FB50-4E54-BE5E-77EA6ED05E62}">
-  <dimension ref="A1:G7"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B82853DE-5136-417C-B101-7E905B9888AD}">
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59DB0000-FB50-4E54-BE5E-77EA6ED05E62}">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -872,7 +1081,7 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E1" t="s">
         <v>6</v>
@@ -898,7 +1107,7 @@
         <v>4500</v>
       </c>
       <c r="E2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G2" t="s">
         <v>4</v>
@@ -906,7 +1115,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -920,7 +1129,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -929,12 +1138,12 @@
         <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -943,12 +1152,12 @@
         <v>16</v>
       </c>
       <c r="G5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -957,12 +1166,12 @@
         <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B7">
         <v>4</v>
@@ -971,10 +1180,55 @@
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G7" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>33</v>
+      </c>
+      <c r="G8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>16</v>
+      </c>
+      <c r="G9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>109</v>
+      </c>
+      <c r="G10" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -983,25 +1237,26 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{059BB909-85AE-40F5-AD35-AA48C22E045E}">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" customWidth="1"/>
+    <col min="3" max="3" width="3.7109375" customWidth="1"/>
     <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.42578125" customWidth="1"/>
     <col min="6" max="6" width="16.140625" customWidth="1"/>
     <col min="7" max="7" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.140625" customWidth="1"/>
     <col min="9" max="9" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -1015,22 +1270,22 @@
         <v>9</v>
       </c>
       <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
         <v>25</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>26</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>27</v>
-      </c>
-      <c r="G1" t="s">
-        <v>28</v>
       </c>
       <c r="H1" t="s">
         <v>10</v>
       </c>
       <c r="I1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J1" t="s">
         <v>12</v>
@@ -1038,36 +1293,42 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>101</v>
+        <v>32</v>
+      </c>
+      <c r="I2" t="s">
+        <v>33</v>
       </c>
       <c r="J2" t="s">
-        <v>8</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="F3" t="s">
         <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="J3" t="s">
         <v>8</v>
@@ -1075,71 +1336,56 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>97</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
+        <v>31</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>34</v>
+      </c>
+      <c r="I4" t="s">
+        <v>33</v>
       </c>
       <c r="J4" t="s">
-        <v>8</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" t="s">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="J5" t="s">
-        <v>93</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
         <v>30</v>
       </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" t="s">
-        <v>35</v>
-      </c>
       <c r="I6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J6" t="s">
         <v>94</v>
@@ -1150,94 +1396,103 @@
         <v>36</v>
       </c>
       <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
         <v>30</v>
       </c>
-      <c r="D7" t="s">
-        <v>31</v>
+      <c r="E7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s">
+        <v>16</v>
       </c>
       <c r="I7" t="s">
-        <v>34</v>
-      </c>
-      <c r="J7" t="s">
-        <v>95</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8">
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F8" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>56</v>
-      </c>
-      <c r="I8" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="J8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9">
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F9" t="s">
         <v>18</v>
       </c>
       <c r="G9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" t="s">
-        <v>34</v>
+        <v>40</v>
+      </c>
+      <c r="J9" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10">
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F10" t="s">
         <v>18</v>
       </c>
       <c r="G10" t="s">
-        <v>39</v>
+        <v>117</v>
+      </c>
+      <c r="J10" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1245,495 +1500,545 @@
         <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11">
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F11" t="s">
         <v>18</v>
       </c>
       <c r="G11" t="s">
-        <v>41</v>
+        <v>43</v>
+      </c>
+      <c r="J11" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12">
         <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F12" t="s">
         <v>18</v>
       </c>
       <c r="G12" t="s">
-        <v>44</v>
-      </c>
-      <c r="J12" t="s">
-        <v>102</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14">
         <v>5</v>
       </c>
       <c r="D14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" t="s">
         <v>49</v>
       </c>
-      <c r="E14" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" t="s">
-        <v>50</v>
-      </c>
       <c r="G14" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F15" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="G15" t="s">
-        <v>53</v>
-      </c>
-      <c r="I15" t="s">
-        <v>34</v>
+        <v>71</v>
+      </c>
+      <c r="J15" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16">
         <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F16" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="G16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="J16" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F17" t="s">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="G17" t="s">
-        <v>60</v>
-      </c>
-      <c r="I17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F18" t="s">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="G18" t="s">
-        <v>62</v>
-      </c>
-      <c r="I18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C19">
         <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F19" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="G19" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="I19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="J19" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C20">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F20" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="G20" t="s">
-        <v>66</v>
-      </c>
-      <c r="I20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="J20" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C21">
         <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F21" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="G21" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="J21" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>69</v>
-      </c>
-      <c r="B22" t="s">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="C22">
         <v>5</v>
       </c>
       <c r="D22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" t="s">
+        <v>86</v>
+      </c>
+      <c r="G22" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" t="s">
         <v>49</v>
       </c>
-      <c r="E22" t="s">
-        <v>32</v>
-      </c>
-      <c r="F22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G22" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>71</v>
-      </c>
-      <c r="B23" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23">
-        <v>5</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="G23" t="s">
+        <v>52</v>
+      </c>
+      <c r="I23" t="s">
+        <v>33</v>
+      </c>
+      <c r="J23" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" t="s">
+        <v>54</v>
+      </c>
+      <c r="G24" t="s">
+        <v>55</v>
+      </c>
+      <c r="I24" t="s">
+        <v>33</v>
+      </c>
+      <c r="J24" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>53</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
       </c>
-      <c r="E23" t="s">
-        <v>32</v>
-      </c>
-      <c r="F23" t="s">
-        <v>97</v>
-      </c>
-      <c r="G23" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>73</v>
-      </c>
-      <c r="B24" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24">
-        <v>5</v>
-      </c>
-      <c r="D24" t="s">
-        <v>49</v>
-      </c>
-      <c r="E24" t="s">
-        <v>32</v>
-      </c>
-      <c r="F24" t="s">
-        <v>97</v>
-      </c>
-      <c r="G24" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>75</v>
-      </c>
-      <c r="B25" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25">
-        <v>5</v>
-      </c>
-      <c r="D25" t="s">
-        <v>49</v>
-      </c>
-      <c r="E25" t="s">
-        <v>32</v>
-      </c>
-      <c r="F25" t="s">
-        <v>97</v>
-      </c>
       <c r="G25" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="J25" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C26">
         <v>5</v>
       </c>
       <c r="D26" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" t="s">
+        <v>31</v>
+      </c>
+      <c r="F26" t="s">
         <v>49</v>
       </c>
-      <c r="E26" t="s">
-        <v>32</v>
-      </c>
-      <c r="F26" t="s">
-        <v>97</v>
-      </c>
       <c r="G26" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C27">
         <v>3</v>
       </c>
       <c r="D27" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" t="s">
+        <v>31</v>
+      </c>
+      <c r="F27" t="s">
+        <v>54</v>
+      </c>
+      <c r="G27" t="s">
+        <v>59</v>
+      </c>
+      <c r="I27" t="s">
+        <v>33</v>
+      </c>
+      <c r="J27" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" t="s">
+        <v>31</v>
+      </c>
+      <c r="F28" t="s">
+        <v>54</v>
+      </c>
+      <c r="G28" t="s">
+        <v>61</v>
+      </c>
+      <c r="I28" t="s">
+        <v>33</v>
+      </c>
+      <c r="J28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29" t="s">
+        <v>48</v>
+      </c>
+      <c r="E29" t="s">
+        <v>31</v>
+      </c>
+      <c r="F29" t="s">
         <v>49</v>
       </c>
-      <c r="E27" t="s">
-        <v>32</v>
-      </c>
-      <c r="F27" t="s">
-        <v>80</v>
-      </c>
-      <c r="G27" t="s">
-        <v>81</v>
-      </c>
-      <c r="I27" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>82</v>
-      </c>
-      <c r="B28" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28">
+      <c r="G29" t="s">
+        <v>63</v>
+      </c>
+      <c r="I29" t="s">
+        <v>33</v>
+      </c>
+      <c r="J29" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" t="s">
+        <v>31</v>
+      </c>
+      <c r="F30" t="s">
+        <v>49</v>
+      </c>
+      <c r="G30" t="s">
+        <v>65</v>
+      </c>
+      <c r="I30" t="s">
+        <v>33</v>
+      </c>
+      <c r="J30" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>5</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D31" t="s">
+        <v>48</v>
+      </c>
+      <c r="E31" t="s">
+        <v>31</v>
+      </c>
+      <c r="F31" t="s">
         <v>49</v>
       </c>
-      <c r="E28" t="s">
-        <v>32</v>
-      </c>
-      <c r="F28" t="s">
-        <v>97</v>
-      </c>
-      <c r="G28" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>84</v>
-      </c>
-      <c r="B29" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29">
-        <v>5</v>
-      </c>
-      <c r="D29" t="s">
-        <v>49</v>
-      </c>
-      <c r="E29" t="s">
-        <v>32</v>
-      </c>
-      <c r="F29" t="s">
-        <v>97</v>
-      </c>
-      <c r="G29" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>86</v>
-      </c>
-      <c r="C30">
-        <v>5</v>
-      </c>
-      <c r="D30" t="s">
-        <v>49</v>
-      </c>
-      <c r="E30" t="s">
-        <v>32</v>
-      </c>
-      <c r="F30" t="s">
-        <v>87</v>
-      </c>
-      <c r="G30" t="s">
-        <v>88</v>
+      <c r="G31" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:J1" xr:uid="{059BB909-85AE-40F5-AD35-AA48C22E045E}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J30">
-      <sortCondition ref="J1"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J31">
+      <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{633F46BA-590B-4423-8D70-2AAFFF2DC0F6}">
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1755,13 +2060,13 @@
         <v>5</v>
       </c>
       <c r="E1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1" t="s">
         <v>90</v>
-      </c>
-      <c r="F1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G1" t="s">
-        <v>91</v>
       </c>
       <c r="H1" t="s">
         <v>22</v>
@@ -1784,13 +2089,13 @@
         <v>300</v>
       </c>
       <c r="F2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G2" t="s">
         <v>7</v>
       </c>
       <c r="H2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I2" t="s">
         <v>0</v>
@@ -1798,7 +2103,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -1811,6 +2116,170 @@
       </c>
       <c r="I3" t="s">
         <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1321391-ECA8-4E22-A82C-4209E35C7218}">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="str">
+        <f>H2</f>
+        <v>ws7.1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <f>H3</f>
+        <v>ws7.2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
+        <f>H4</f>
+        <v>ws7.3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
+        <f>H5</f>
+        <v>ws7.4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="H5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="H6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41915083-2343-456F-A8AB-E291886DF246}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/reset1/input.xlsx
+++ b/reset1/input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\boomhtml\reset1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98141C63-5EF6-4F7F-85A6-0CB5F54321F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF10457-F2D1-4326-8BA1-6432D6B74C28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="7" xr2:uid="{14306834-8CD9-4FAE-BB54-EB7E6A6F73B2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="8" xr2:uid="{14306834-8CD9-4FAE-BB54-EB7E6A6F73B2}"/>
   </bookViews>
   <sheets>
     <sheet name="ContaxContact" sheetId="10" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="135">
   <si>
     <t>teller</t>
   </si>
@@ -431,9 +431,6 @@
     <t>zt</t>
   </si>
   <si>
-    <t>theuninck</t>
-  </si>
-  <si>
     <t>ws1.1</t>
   </si>
   <si>
@@ -441,6 +438,9 @@
   </si>
   <si>
     <t>dampkap</t>
+  </si>
+  <si>
+    <t>sk1</t>
   </si>
 </sst>
 </file>
@@ -801,7 +801,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -855,7 +855,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -895,6 +895,9 @@
       </c>
       <c r="E2" t="s">
         <v>105</v>
+      </c>
+      <c r="F2" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -1062,7 +1065,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1241,8 +1244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{059BB909-85AE-40F5-AD35-AA48C22E045E}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1293,7 +1296,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -1302,90 +1305,132 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="E2" t="s">
         <v>31</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>63</v>
+      </c>
+      <c r="H2">
+        <v>12</v>
       </c>
       <c r="I2" t="s">
         <v>33</v>
       </c>
       <c r="J2" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>64</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" t="s">
+        <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>65</v>
+      </c>
+      <c r="H3">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>8</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
-      </c>
-      <c r="C4">
-        <v>5</v>
       </c>
       <c r="D4" t="s">
         <v>30</v>
       </c>
-      <c r="E4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" t="s">
-        <v>34</v>
+      <c r="H4">
+        <v>16</v>
       </c>
       <c r="I4" t="s">
         <v>33</v>
       </c>
       <c r="J4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>98</v>
+        <v>41</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>100</v>
+        <v>117</v>
+      </c>
+      <c r="H5">
+        <v>18</v>
       </c>
       <c r="J5" t="s">
-        <v>8</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
       </c>
       <c r="D6" t="s">
         <v>30</v>
       </c>
-      <c r="I6" t="s">
-        <v>33</v>
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6">
+        <v>20</v>
       </c>
       <c r="J6" t="s">
         <v>94</v>
@@ -1393,7 +1438,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -1402,30 +1447,36 @@
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="E7" t="s">
         <v>31</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="G7" t="s">
-        <v>16</v>
+        <v>55</v>
+      </c>
+      <c r="H7">
+        <v>22</v>
       </c>
       <c r="I7" t="s">
         <v>33</v>
       </c>
+      <c r="J7" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" t="s">
         <v>30</v>
@@ -1437,7 +1488,13 @@
         <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>38</v>
+        <v>34</v>
+      </c>
+      <c r="H8">
+        <v>24</v>
+      </c>
+      <c r="I8" t="s">
+        <v>33</v>
       </c>
       <c r="J8" t="s">
         <v>93</v>
@@ -1445,7 +1502,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -1463,15 +1520,18 @@
         <v>18</v>
       </c>
       <c r="G9" t="s">
-        <v>40</v>
+        <v>38</v>
+      </c>
+      <c r="H9">
+        <v>25</v>
       </c>
       <c r="J9" t="s">
-        <v>8</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -1489,93 +1549,87 @@
         <v>18</v>
       </c>
       <c r="G10" t="s">
-        <v>117</v>
+        <v>32</v>
+      </c>
+      <c r="H10">
+        <v>26</v>
+      </c>
+      <c r="I10" t="s">
+        <v>33</v>
       </c>
       <c r="J10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11">
-        <v>3</v>
-      </c>
-      <c r="D11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="F11" t="s">
         <v>18</v>
       </c>
       <c r="G11" t="s">
-        <v>43</v>
+        <v>11</v>
+      </c>
+      <c r="H11">
+        <v>28</v>
       </c>
       <c r="J11" t="s">
-        <v>94</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12">
-        <v>3</v>
-      </c>
-      <c r="D12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" t="s">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>100</v>
+      </c>
+      <c r="H12">
+        <v>90</v>
+      </c>
+      <c r="J12" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
       </c>
       <c r="C13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="E13" t="s">
         <v>31</v>
       </c>
       <c r="F13" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="G13" t="s">
-        <v>50</v>
+        <v>40</v>
+      </c>
+      <c r="H13">
+        <v>80</v>
+      </c>
+      <c r="J13" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14" t="s">
         <v>48</v>
@@ -1584,21 +1638,30 @@
         <v>31</v>
       </c>
       <c r="F14" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="G14" t="s">
-        <v>69</v>
+        <v>80</v>
+      </c>
+      <c r="H14">
+        <v>85</v>
+      </c>
+      <c r="I14" t="s">
+        <v>33</v>
+      </c>
+      <c r="J14" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
       </c>
       <c r="C15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D15" t="s">
         <v>48</v>
@@ -1607,50 +1670,47 @@
         <v>31</v>
       </c>
       <c r="F15" t="s">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="G15" t="s">
-        <v>71</v>
+        <v>52</v>
+      </c>
+      <c r="H15">
+        <v>85</v>
+      </c>
+      <c r="I15" t="s">
+        <v>33</v>
       </c>
       <c r="J15" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>72</v>
-      </c>
-      <c r="B16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16">
-        <v>5</v>
-      </c>
-      <c r="D16" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="F16" t="s">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="G16" t="s">
-        <v>73</v>
+        <v>55</v>
+      </c>
+      <c r="H16">
+        <v>20</v>
       </c>
       <c r="J16" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
       </c>
       <c r="C17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" t="s">
         <v>48</v>
@@ -1659,21 +1719,30 @@
         <v>31</v>
       </c>
       <c r="F17" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="G17" t="s">
-        <v>75</v>
+        <v>59</v>
+      </c>
+      <c r="H17">
+        <v>6</v>
+      </c>
+      <c r="I17" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
       </c>
       <c r="C18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" t="s">
         <v>48</v>
@@ -1682,21 +1751,30 @@
         <v>31</v>
       </c>
       <c r="F18" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="G18" t="s">
-        <v>77</v>
+        <v>61</v>
+      </c>
+      <c r="H18">
+        <v>6</v>
+      </c>
+      <c r="I18" t="s">
+        <v>33</v>
+      </c>
+      <c r="J18" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19" t="s">
         <v>48</v>
@@ -1705,21 +1783,21 @@
         <v>31</v>
       </c>
       <c r="F19" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="G19" t="s">
-        <v>80</v>
-      </c>
-      <c r="I19" t="s">
-        <v>33</v>
+        <v>82</v>
+      </c>
+      <c r="H19">
+        <v>5</v>
       </c>
       <c r="J19" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
@@ -1737,7 +1815,10 @@
         <v>96</v>
       </c>
       <c r="G20" t="s">
-        <v>82</v>
+        <v>84</v>
+      </c>
+      <c r="H20">
+        <v>80</v>
       </c>
       <c r="J20" t="s">
         <v>111</v>
@@ -1745,7 +1826,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -1763,15 +1844,21 @@
         <v>96</v>
       </c>
       <c r="G21" t="s">
-        <v>84</v>
+        <v>71</v>
+      </c>
+      <c r="H21">
+        <v>70</v>
       </c>
       <c r="J21" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>85</v>
+        <v>72</v>
+      </c>
+      <c r="B22" t="s">
+        <v>29</v>
       </c>
       <c r="C22">
         <v>5</v>
@@ -1783,15 +1870,21 @@
         <v>31</v>
       </c>
       <c r="F22" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="G22" t="s">
-        <v>87</v>
+        <v>73</v>
+      </c>
+      <c r="H22">
+        <v>45</v>
+      </c>
+      <c r="J22" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
         <v>29</v>
@@ -1800,27 +1893,27 @@
         <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="E23" t="s">
         <v>31</v>
       </c>
       <c r="F23" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="G23" t="s">
-        <v>52</v>
+        <v>16</v>
+      </c>
+      <c r="H23">
+        <v>46</v>
       </c>
       <c r="I23" t="s">
         <v>33</v>
       </c>
-      <c r="J23" t="s">
-        <v>116</v>
-      </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B24" t="s">
         <v>29</v>
@@ -1829,41 +1922,50 @@
         <v>3</v>
       </c>
       <c r="D24" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="E24" t="s">
         <v>31</v>
       </c>
       <c r="F24" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="G24" t="s">
-        <v>55</v>
-      </c>
-      <c r="I24" t="s">
-        <v>33</v>
-      </c>
-      <c r="J24" t="s">
-        <v>94</v>
+        <v>45</v>
+      </c>
+      <c r="H24">
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>53</v>
+        <v>47</v>
+      </c>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25">
+        <v>5</v>
+      </c>
+      <c r="D25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" t="s">
+        <v>31</v>
       </c>
       <c r="F25" t="s">
         <v>49</v>
       </c>
       <c r="G25" t="s">
-        <v>55</v>
-      </c>
-      <c r="J25" t="s">
-        <v>116</v>
+        <v>50</v>
+      </c>
+      <c r="H25">
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="B26" t="s">
         <v>29</v>
@@ -1881,18 +1983,21 @@
         <v>49</v>
       </c>
       <c r="G26" t="s">
-        <v>57</v>
+        <v>69</v>
+      </c>
+      <c r="H26">
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="B27" t="s">
         <v>29</v>
       </c>
       <c r="C27">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="s">
         <v>48</v>
@@ -1901,27 +2006,24 @@
         <v>31</v>
       </c>
       <c r="F27" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="G27" t="s">
-        <v>59</v>
-      </c>
-      <c r="I27" t="s">
-        <v>33</v>
-      </c>
-      <c r="J27" t="s">
-        <v>116</v>
+        <v>75</v>
+      </c>
+      <c r="H27">
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="B28" t="s">
         <v>29</v>
       </c>
       <c r="C28">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D28" t="s">
         <v>48</v>
@@ -1930,27 +2032,21 @@
         <v>31</v>
       </c>
       <c r="F28" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="G28" t="s">
-        <v>61</v>
-      </c>
-      <c r="I28" t="s">
-        <v>33</v>
-      </c>
-      <c r="J28" t="s">
-        <v>116</v>
+        <v>77</v>
+      </c>
+      <c r="H28">
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B29" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="C29">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D29" t="s">
         <v>48</v>
@@ -1959,27 +2055,24 @@
         <v>31</v>
       </c>
       <c r="F29" t="s">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="G29" t="s">
-        <v>63</v>
-      </c>
-      <c r="I29" t="s">
-        <v>33</v>
-      </c>
-      <c r="J29" t="s">
-        <v>112</v>
+        <v>87</v>
+      </c>
+      <c r="H29">
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B30" t="s">
         <v>29</v>
       </c>
       <c r="C30">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D30" t="s">
         <v>48</v>
@@ -1991,13 +2084,10 @@
         <v>49</v>
       </c>
       <c r="G30" t="s">
-        <v>65</v>
-      </c>
-      <c r="I30" t="s">
-        <v>33</v>
-      </c>
-      <c r="J30" t="s">
-        <v>112</v>
+        <v>57</v>
+      </c>
+      <c r="H30">
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -2022,11 +2112,14 @@
       <c r="G31" t="s">
         <v>67</v>
       </c>
+      <c r="H31">
+        <v>63</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:J1" xr:uid="{059BB909-85AE-40F5-AD35-AA48C22E045E}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J31">
-      <sortCondition ref="A1"/>
+      <sortCondition descending="1" ref="J1"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2038,7 +2131,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2127,8 +2220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1321391-ECA8-4E22-A82C-4209E35C7218}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2227,7 +2320,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -2236,21 +2329,21 @@
         <v>2</v>
       </c>
       <c r="H6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>132</v>
+      </c>
+      <c r="B7" t="s">
         <v>133</v>
-      </c>
-      <c r="B7" t="s">
-        <v>134</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -2263,8 +2356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41915083-2343-456F-A8AB-E291886DF246}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2279,7 +2372,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
